--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
@@ -46,19 +46,19 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>LSPM</t>
   </si>
   <si>
+    <t>MCPS</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.54443342947375</v>
+        <v>0.5516878418358931</v>
       </c>
       <c r="C2">
-        <v>0.4938229270382888</v>
+        <v>0.4991934622461475</v>
       </c>
       <c r="D2">
-        <v>0.2697637516732908</v>
+        <v>0.2745125790731923</v>
       </c>
       <c r="E2">
-        <v>0.4954944664842583</v>
+        <v>0.4975867841489421</v>
       </c>
       <c r="F2">
-        <v>0.2083733081754686</v>
+        <v>0.2108240194985257</v>
       </c>
       <c r="G2">
-        <v>1.386726880380691</v>
+        <v>1.303353259955396</v>
       </c>
       <c r="H2">
-        <v>0.329597938027749</v>
+        <v>0.3459364900740979</v>
       </c>
       <c r="I2">
-        <v>0.6733815542795053</v>
+        <v>0.829579298538026</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9503585716635915</v>
+        <v>1.063151659439023</v>
       </c>
       <c r="C3">
-        <v>0.7319004162458849</v>
+        <v>0.8209550378862022</v>
       </c>
       <c r="D3">
-        <v>0.7410761412271001</v>
+        <v>0.9259833627837538</v>
       </c>
       <c r="E3">
-        <v>0.7797858232917866</v>
+        <v>0.8709795583372869</v>
       </c>
       <c r="F3">
-        <v>0.2181680184564331</v>
+        <v>0.2283456763984547</v>
       </c>
       <c r="G3">
-        <v>6.51111291697073</v>
+        <v>10.44156728400139</v>
       </c>
       <c r="H3">
-        <v>0.4726635963722291</v>
+        <v>0.4850105980224364</v>
       </c>
       <c r="I3">
-        <v>1.192173530674203</v>
+        <v>1.29258780542729</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.142119824503511</v>
+        <v>1.065029873706663</v>
       </c>
       <c r="C4">
-        <v>1.004733863563501</v>
+        <v>0.81400908168422</v>
       </c>
       <c r="D4">
-        <v>3.284865852581483</v>
+        <v>0.9313372323068771</v>
       </c>
       <c r="E4">
-        <v>1.533465035431821</v>
+        <v>0.8744705245360959</v>
       </c>
       <c r="F4">
-        <v>0.2360707387864231</v>
+        <v>0.2132438905832505</v>
       </c>
       <c r="G4">
-        <v>24.23446688790245</v>
+        <v>10.487915667169</v>
       </c>
       <c r="H4">
-        <v>0.5093579082537472</v>
+        <v>0.4861634781254704</v>
       </c>
       <c r="I4">
-        <v>2.153222420606114</v>
+        <v>1.293252190523985</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.356508245692187</v>
+        <v>3.062431037147692</v>
       </c>
       <c r="C5">
-        <v>1.041606562093419</v>
+        <v>1.38604070937139</v>
       </c>
       <c r="D5">
-        <v>3.743834167260258</v>
+        <v>4.279481636534025</v>
       </c>
       <c r="E5">
-        <v>1.588721013009045</v>
+        <v>1.39741322649338</v>
       </c>
       <c r="F5">
-        <v>0.2383860651854071</v>
+        <v>0.2345574286038852</v>
       </c>
       <c r="G5">
-        <v>26.20497143481311</v>
+        <v>34.75363632371462</v>
       </c>
       <c r="H5">
-        <v>0.5096339111851597</v>
+        <v>0.6688473536105731</v>
       </c>
       <c r="I5">
-        <v>2.241490315515833</v>
+        <v>3.505575682101709</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2.552051746246231</v>
+        <v>3.541474767058375</v>
       </c>
       <c r="C6">
-        <v>1.169670313839958</v>
+        <v>0.9650679814088348</v>
       </c>
       <c r="D6">
-        <v>3.523140780524713</v>
+        <v>8.901350505462624</v>
       </c>
       <c r="E6">
-        <v>1.380513065891724</v>
+        <v>2.513458683444546</v>
       </c>
       <c r="F6">
-        <v>0.2445067710815144</v>
+        <v>0.2172030017787396</v>
       </c>
       <c r="G6">
-        <v>25.32917133400027</v>
+        <v>80.06770928166762</v>
       </c>
       <c r="H6">
-        <v>0.6318715773611521</v>
+        <v>0.4919279007683429</v>
       </c>
       <c r="I6">
-        <v>2.864367478202421</v>
+        <v>2.294617537393096</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.721317932732118</v>
+        <v>3.682333685301644</v>
       </c>
       <c r="C7">
-        <v>0.6933729308430048</v>
+        <v>1.527603604068971</v>
       </c>
       <c r="D7">
-        <v>6.34660464822766</v>
+        <v>5.893508502466014</v>
       </c>
       <c r="E7">
-        <v>2.332180511468525</v>
+        <v>1.600481924272769</v>
       </c>
       <c r="F7">
-        <v>0.2249365880876821</v>
+        <v>0.2314126935537202</v>
       </c>
       <c r="G7">
-        <v>41.67291199046596</v>
+        <v>48.35142599002393</v>
       </c>
       <c r="H7">
-        <v>0.4129780216604446</v>
+        <v>0.6690331334706575</v>
       </c>
       <c r="I7">
-        <v>1.181220735807585</v>
+        <v>4.051889191554478</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>3.838167971691867</v>
+        <v>4.240101111211249</v>
       </c>
       <c r="C8">
-        <v>3.333551601955087</v>
+        <v>2.375083235032839</v>
       </c>
       <c r="D8">
-        <v>2.524332704984015</v>
+        <v>5.787194462505463</v>
       </c>
       <c r="E8">
-        <v>0.657692087371384</v>
+        <v>1.364871806288662</v>
       </c>
       <c r="F8">
-        <v>0.9628500247281908</v>
+        <v>0.2983058951762804</v>
       </c>
       <c r="G8">
-        <v>14.39623864585392</v>
+        <v>49.99780067805718</v>
       </c>
       <c r="H8">
-        <v>1.714040684636144</v>
+        <v>1.327357646719493</v>
       </c>
       <c r="I8">
-        <v>5.12216184368685</v>
+        <v>4.827540174676029</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>8.100587370775834</v>
+        <v>10.69214990499799</v>
       </c>
       <c r="C9">
-        <v>3.906363410347758</v>
+        <v>5.378230120874207</v>
       </c>
       <c r="D9">
-        <v>11.06841827113774</v>
+        <v>15.72741678202147</v>
       </c>
       <c r="E9">
-        <v>1.366372309132648</v>
+        <v>1.470931189869473</v>
       </c>
       <c r="F9">
-        <v>0.3462447908155696</v>
+        <v>0.3361617241855637</v>
       </c>
       <c r="G9">
-        <v>59.96674225396534</v>
+        <v>103.6093635637826</v>
       </c>
       <c r="H9">
-        <v>1.798268750780104</v>
+        <v>2.456523021191988</v>
       </c>
       <c r="I9">
-        <v>8.619911403168956</v>
+        <v>12.85263747771548</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>8.793187674308667</v>
+        <v>11.68761758450075</v>
       </c>
       <c r="C10">
-        <v>4.44249643495655</v>
+        <v>5.901523666528961</v>
       </c>
       <c r="D10">
-        <v>11.81906364410992</v>
+        <v>16.63422672495886</v>
       </c>
       <c r="E10">
-        <v>1.344115931773189</v>
+        <v>1.423235026701929</v>
       </c>
       <c r="F10">
-        <v>0.6291675515800979</v>
+        <v>0.5327818524987746</v>
       </c>
       <c r="G10">
-        <v>65.8636076566119</v>
+        <v>109.6820823033828</v>
       </c>
       <c r="H10">
-        <v>2.105461487823875</v>
+        <v>3.108109636601417</v>
       </c>
       <c r="I10">
-        <v>9.513394116711982</v>
+        <v>13.51084882017087</v>
       </c>
     </row>
   </sheetData>
